--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_16ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -2827,28 +2827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>66.11514090644188</v>
+        <v>90.5063421337979</v>
       </c>
       <c r="AB2" t="n">
-        <v>90.46165258231942</v>
+        <v>123.8347701654245</v>
       </c>
       <c r="AC2" t="n">
-        <v>81.82811942361157</v>
+        <v>112.0161535040605</v>
       </c>
       <c r="AD2" t="n">
-        <v>66115.14090644188</v>
+        <v>90506.34213379789</v>
       </c>
       <c r="AE2" t="n">
-        <v>90461.65258231941</v>
+        <v>123834.7701654245</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.840471743227592e-06</v>
+        <v>7.105878215888707e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.958333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>81828.11942361157</v>
+        <v>112016.1535040605</v>
       </c>
     </row>
     <row r="3">
@@ -2933,28 +2933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>62.22983715501645</v>
+        <v>86.45044618178026</v>
       </c>
       <c r="AB3" t="n">
-        <v>85.14560858211762</v>
+        <v>118.2853143903759</v>
       </c>
       <c r="AC3" t="n">
-        <v>77.01943120167273</v>
+        <v>106.9963299994706</v>
       </c>
       <c r="AD3" t="n">
-        <v>62229.83715501644</v>
+        <v>86450.44618178027</v>
       </c>
       <c r="AE3" t="n">
-        <v>85145.60858211762</v>
+        <v>118285.3143903759</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.448121231427259e-06</v>
+        <v>8.230188860462052e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.41796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>77019.43120167273</v>
+        <v>106996.3299994706</v>
       </c>
     </row>
     <row r="4">
@@ -3039,28 +3039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.11774712991109</v>
+        <v>73.31343725214013</v>
       </c>
       <c r="AB4" t="n">
-        <v>83.62399794781996</v>
+        <v>100.3106792089209</v>
       </c>
       <c r="AC4" t="n">
-        <v>75.64304095071802</v>
+        <v>90.73716877216903</v>
       </c>
       <c r="AD4" t="n">
-        <v>61117.74712991109</v>
+        <v>73313.43725214014</v>
       </c>
       <c r="AE4" t="n">
-        <v>83623.99794781995</v>
+        <v>100310.6792089209</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.654600214741292e-06</v>
+        <v>8.612229038770192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.26171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>75643.04095071802</v>
+        <v>90737.16877216903</v>
       </c>
     </row>
     <row r="5">
@@ -3145,28 +3145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>60.4286271255763</v>
+        <v>72.62431724780535</v>
       </c>
       <c r="AB5" t="n">
-        <v>82.68111355606062</v>
+        <v>99.36779481716157</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.79014412196133</v>
+        <v>89.88427194341234</v>
       </c>
       <c r="AD5" t="n">
-        <v>60428.6271255763</v>
+        <v>72624.31724780535</v>
       </c>
       <c r="AE5" t="n">
-        <v>82681.11355606062</v>
+        <v>99367.79481716157</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.766265990931021e-06</v>
+        <v>8.818839960432654e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.190104166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>74790.14412196133</v>
+        <v>89884.27194341234</v>
       </c>
     </row>
     <row r="6">
@@ -3251,28 +3251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.98718068990877</v>
+        <v>72.18287081213782</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.07710706753836</v>
+        <v>98.76378832863931</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.24378316497501</v>
+        <v>89.33791098642602</v>
       </c>
       <c r="AD6" t="n">
-        <v>59987.18068990877</v>
+        <v>72182.87081213781</v>
       </c>
       <c r="AE6" t="n">
-        <v>82077.10706753837</v>
+        <v>98763.7883286393</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.82760747500849e-06</v>
+        <v>8.932337766061616e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>74243.78316497502</v>
+        <v>89337.91098642602</v>
       </c>
     </row>
     <row r="7">
@@ -3357,28 +3357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>59.39973012365652</v>
+        <v>71.59542024588558</v>
       </c>
       <c r="AB7" t="n">
-        <v>81.27333128630255</v>
+        <v>97.96001254740348</v>
       </c>
       <c r="AC7" t="n">
-        <v>73.5167186161937</v>
+        <v>88.61084643764471</v>
       </c>
       <c r="AD7" t="n">
-        <v>59399.73012365652</v>
+        <v>71595.42024588557</v>
       </c>
       <c r="AE7" t="n">
-        <v>81273.33128630255</v>
+        <v>97960.01254740349</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.896815047417049e-06</v>
+        <v>9.060389894558523e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.10546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>73516.7186161937</v>
+        <v>88610.84643764471</v>
       </c>
     </row>
     <row r="8">
@@ -3463,28 +3463,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>59.28024924480927</v>
+        <v>71.47593936703831</v>
       </c>
       <c r="AB8" t="n">
-        <v>81.10985227673947</v>
+        <v>97.79653353784042</v>
       </c>
       <c r="AC8" t="n">
-        <v>73.36884181385904</v>
+        <v>88.46296963531005</v>
       </c>
       <c r="AD8" t="n">
-        <v>59280.24924480927</v>
+        <v>71475.93936703831</v>
       </c>
       <c r="AE8" t="n">
-        <v>81109.85227673948</v>
+        <v>97796.53353784041</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.878632012372776e-06</v>
+        <v>9.026746519145675e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.111979166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>73368.84181385904</v>
+        <v>88462.96963531004</v>
       </c>
     </row>
     <row r="9">
@@ -3569,28 +3569,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.99336859050019</v>
+        <v>71.18905871272925</v>
       </c>
       <c r="AB9" t="n">
-        <v>80.71732950923275</v>
+        <v>97.4040107703337</v>
       </c>
       <c r="AC9" t="n">
-        <v>73.01378086837387</v>
+        <v>88.1079086898249</v>
       </c>
       <c r="AD9" t="n">
-        <v>58993.36859050019</v>
+        <v>71189.05871272925</v>
       </c>
       <c r="AE9" t="n">
-        <v>80717.32950923276</v>
+        <v>97404.0107703337</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.87550425024706e-06</v>
+        <v>9.020959340319846e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.118489583333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>73013.78086837387</v>
+        <v>88107.90868982489</v>
       </c>
     </row>
   </sheetData>
@@ -3866,28 +3866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.72987899551555</v>
+        <v>84.2573032609497</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.09329965480582</v>
+        <v>115.2845594914599</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.16299175794923</v>
+        <v>104.2819629365203</v>
       </c>
       <c r="AD2" t="n">
-        <v>60729.87899551555</v>
+        <v>84257.3032609497</v>
       </c>
       <c r="AE2" t="n">
-        <v>83093.29965480581</v>
+        <v>115284.5594914599</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.401610606613752e-06</v>
+        <v>8.390149127328548e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.57421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>75162.99175794923</v>
+        <v>104281.9629365203</v>
       </c>
     </row>
     <row r="3">
@@ -3972,28 +3972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.9787333444199</v>
+        <v>69.74253498568802</v>
       </c>
       <c r="AB3" t="n">
-        <v>79.32906080299851</v>
+        <v>95.42481319087398</v>
       </c>
       <c r="AC3" t="n">
-        <v>71.75800657901482</v>
+        <v>86.31760294952693</v>
       </c>
       <c r="AD3" t="n">
-        <v>57978.7333444199</v>
+        <v>69742.53498568802</v>
       </c>
       <c r="AE3" t="n">
-        <v>79329.06080299852</v>
+        <v>95424.81319087397</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.983781850609284e-06</v>
+        <v>9.49985736626853e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.151041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>71758.00657901482</v>
+        <v>86317.60294952693</v>
       </c>
     </row>
     <row r="4">
@@ -4078,28 +4078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.33497074340031</v>
+        <v>69.09877238466844</v>
       </c>
       <c r="AB4" t="n">
-        <v>78.44823641148243</v>
+        <v>94.54398879935789</v>
       </c>
       <c r="AC4" t="n">
-        <v>70.96124683117995</v>
+        <v>85.52084320169206</v>
       </c>
       <c r="AD4" t="n">
-        <v>57334.97074340031</v>
+        <v>69098.77238466844</v>
       </c>
       <c r="AE4" t="n">
-        <v>78448.23641148243</v>
+        <v>94543.98879935789</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.11576642214307e-06</v>
+        <v>9.751440329107432e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>70961.24683117995</v>
+        <v>85520.84320169206</v>
       </c>
     </row>
     <row r="5">
@@ -4184,28 +4184,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>56.640384329419</v>
+        <v>68.40418597068712</v>
       </c>
       <c r="AB5" t="n">
-        <v>77.49787263688376</v>
+        <v>93.59362502475921</v>
       </c>
       <c r="AC5" t="n">
-        <v>70.10158444138473</v>
+        <v>84.66118081189684</v>
       </c>
       <c r="AD5" t="n">
-        <v>56640.384329419</v>
+        <v>68404.18597068712</v>
       </c>
       <c r="AE5" t="n">
-        <v>77497.87263688375</v>
+        <v>93593.62502475921</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.234059948660453e-06</v>
+        <v>9.976926047173254e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.001302083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>70101.58444138474</v>
+        <v>84661.18081189685</v>
       </c>
     </row>
     <row r="6">
@@ -4290,28 +4290,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>44.22830439476191</v>
+        <v>67.67038780562444</v>
       </c>
       <c r="AB6" t="n">
-        <v>60.51511728797416</v>
+        <v>92.58961000243067</v>
       </c>
       <c r="AC6" t="n">
-        <v>54.73963942752283</v>
+        <v>83.75298757415511</v>
       </c>
       <c r="AD6" t="n">
-        <v>44228.30439476192</v>
+        <v>67670.38780562444</v>
       </c>
       <c r="AE6" t="n">
-        <v>60515.11728797416</v>
+        <v>92589.61000243068</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.305630067582176e-06</v>
+        <v>1.011334973942618e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.962239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>54739.63942752283</v>
+        <v>83752.98757415511</v>
       </c>
     </row>
     <row r="7">
@@ -4396,28 +4396,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>44.25045983612025</v>
+        <v>67.69254324698278</v>
       </c>
       <c r="AB7" t="n">
-        <v>60.54543134026971</v>
+        <v>92.61992405472623</v>
       </c>
       <c r="AC7" t="n">
-        <v>54.76706034921335</v>
+        <v>83.78040849584562</v>
       </c>
       <c r="AD7" t="n">
-        <v>44250.45983612025</v>
+        <v>67692.54324698278</v>
       </c>
       <c r="AE7" t="n">
-        <v>60545.43134026971</v>
+        <v>92619.92405472623</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.288196320665347e-06</v>
+        <v>1.008011832721073e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>3</v>
+        <v>2.975260416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>54767.06034921335</v>
+        <v>83780.40849584562</v>
       </c>
     </row>
   </sheetData>
@@ -4693,28 +4693,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>38.62738081289539</v>
+        <v>59.46892494070817</v>
       </c>
       <c r="AB2" t="n">
-        <v>52.85168654781526</v>
+        <v>81.36800668765245</v>
       </c>
       <c r="AC2" t="n">
-        <v>47.80759576159995</v>
+        <v>73.60235833011656</v>
       </c>
       <c r="AD2" t="n">
-        <v>38627.38081289539</v>
+        <v>59468.92494070817</v>
       </c>
       <c r="AE2" t="n">
-        <v>52851.68654781526</v>
+        <v>81368.00668765245</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.114737686453808e-06</v>
+        <v>1.302279102735178e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>47807.59576159995</v>
+        <v>73602.35833011656</v>
       </c>
     </row>
     <row r="3">
@@ -4799,28 +4799,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>37.70015198613218</v>
+        <v>58.54169611394482</v>
       </c>
       <c r="AB3" t="n">
-        <v>51.58301116059518</v>
+        <v>80.09933130042667</v>
       </c>
       <c r="AC3" t="n">
-        <v>46.66000097273529</v>
+        <v>72.45476354125012</v>
       </c>
       <c r="AD3" t="n">
-        <v>37700.15198613219</v>
+        <v>58541.69611394482</v>
       </c>
       <c r="AE3" t="n">
-        <v>51583.01116059518</v>
+        <v>80099.33130042667</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.441648462947218e-06</v>
+        <v>1.371902542777329e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.721354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>46660.00097273529</v>
+        <v>72454.76354125011</v>
       </c>
     </row>
   </sheetData>
@@ -5096,28 +5096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.61353079673847</v>
+        <v>64.58541635148971</v>
       </c>
       <c r="AB2" t="n">
-        <v>73.35639809811893</v>
+        <v>88.3686159595505</v>
       </c>
       <c r="AC2" t="n">
-        <v>66.35536642000227</v>
+        <v>79.93483927852371</v>
       </c>
       <c r="AD2" t="n">
-        <v>53613.53079673847</v>
+        <v>64585.41635148971</v>
       </c>
       <c r="AE2" t="n">
-        <v>73356.39809811892</v>
+        <v>88368.6159595505</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.336721871575564e-06</v>
+        <v>1.083539047302204e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.14453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>66355.36642000228</v>
+        <v>79934.83927852371</v>
       </c>
     </row>
     <row r="3">
@@ -5202,28 +5202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>40.73417948566221</v>
+        <v>62.59243072349422</v>
       </c>
       <c r="AB3" t="n">
-        <v>55.73430143727855</v>
+        <v>85.64172509900791</v>
       </c>
       <c r="AC3" t="n">
-        <v>50.41509793179686</v>
+        <v>77.4681990544951</v>
       </c>
       <c r="AD3" t="n">
-        <v>40734.17948566221</v>
+        <v>62592.43072349422</v>
       </c>
       <c r="AE3" t="n">
-        <v>55734.30143727855</v>
+        <v>85641.72509900792</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.851244764743131e-06</v>
+        <v>1.188004983300733e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.87109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>50415.09793179686</v>
+        <v>77468.1990544951</v>
       </c>
     </row>
     <row r="4">
@@ -5308,28 +5308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.14730047727925</v>
+        <v>62.00555171511119</v>
       </c>
       <c r="AB4" t="n">
-        <v>54.93130768673835</v>
+        <v>84.83873134846411</v>
       </c>
       <c r="AC4" t="n">
-        <v>49.68874077779702</v>
+        <v>76.74184190049412</v>
       </c>
       <c r="AD4" t="n">
-        <v>40147.30047727925</v>
+        <v>62005.55171511119</v>
       </c>
       <c r="AE4" t="n">
-        <v>54931.30768673835</v>
+        <v>84838.73134846411</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.961774005056869e-06</v>
+        <v>1.21044624043022e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.8125</v>
       </c>
       <c r="AH4" t="n">
-        <v>49688.74077779702</v>
+        <v>76741.84190049412</v>
       </c>
     </row>
   </sheetData>
@@ -5605,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>35.80635987513781</v>
+        <v>55.81399561455537</v>
       </c>
       <c r="AB2" t="n">
-        <v>48.99184124613382</v>
+        <v>76.36717113951086</v>
       </c>
       <c r="AC2" t="n">
-        <v>44.3161286781726</v>
+        <v>69.07879550797124</v>
       </c>
       <c r="AD2" t="n">
-        <v>35806.35987513781</v>
+        <v>55813.99561455537</v>
       </c>
       <c r="AE2" t="n">
-        <v>48991.84124613382</v>
+        <v>76367.17113951086</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.77613141095549e-06</v>
+        <v>1.508912111082765e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.688802083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>44316.12867817259</v>
+        <v>69078.79550797124</v>
       </c>
     </row>
     <row r="3">
@@ -5711,28 +5711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>35.90830126750075</v>
+        <v>55.91593700691834</v>
       </c>
       <c r="AB3" t="n">
-        <v>49.13132195650095</v>
+        <v>76.50665184987864</v>
       </c>
       <c r="AC3" t="n">
-        <v>44.44229754530512</v>
+        <v>69.20496437510397</v>
       </c>
       <c r="AD3" t="n">
-        <v>35908.30126750076</v>
+        <v>55915.93700691834</v>
       </c>
       <c r="AE3" t="n">
-        <v>49131.32195650096</v>
+        <v>76506.65184987863</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.717841687237995e-06</v>
+        <v>1.495932128149318e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.71484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>44442.29754530512</v>
+        <v>69204.96437510397</v>
       </c>
     </row>
   </sheetData>
@@ -6008,28 +6008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>62.0660639732632</v>
+        <v>85.82052462844655</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.92152688968009</v>
+        <v>117.4234279309276</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.81673555146074</v>
+        <v>106.2167007740465</v>
       </c>
       <c r="AD2" t="n">
-        <v>62066.0639732632</v>
+        <v>85820.52462844655</v>
       </c>
       <c r="AE2" t="n">
-        <v>84921.5268896801</v>
+        <v>117423.4279309276</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.248908374938674e-06</v>
+        <v>8.033681586641308e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.665364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>76816.73555146073</v>
+        <v>106216.7007740465</v>
       </c>
     </row>
     <row r="3">
@@ -6114,28 +6114,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>59.25140167603635</v>
+        <v>71.12872151217907</v>
       </c>
       <c r="AB3" t="n">
-        <v>81.07038176047948</v>
+        <v>97.32145475065158</v>
       </c>
       <c r="AC3" t="n">
-        <v>73.33313830827366</v>
+        <v>88.03323170079311</v>
       </c>
       <c r="AD3" t="n">
-        <v>59251.40167603635</v>
+        <v>71128.72151217907</v>
       </c>
       <c r="AE3" t="n">
-        <v>81070.38176047947</v>
+        <v>97321.45475065158</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.800053952980833e-06</v>
+        <v>9.07576762172555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.248697916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>73333.13830827366</v>
+        <v>88033.23170079311</v>
       </c>
     </row>
     <row r="4">
@@ -6220,28 +6220,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>58.03880821568389</v>
+        <v>69.91612805182662</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.41125789217814</v>
+        <v>95.66233088235026</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.83235889336748</v>
+        <v>86.53245228588695</v>
       </c>
       <c r="AD4" t="n">
-        <v>58038.80821568389</v>
+        <v>69916.12805182661</v>
       </c>
       <c r="AE4" t="n">
-        <v>79411.25789217814</v>
+        <v>95662.33088235026</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.039564898214593e-06</v>
+        <v>9.528626215211053e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.092447916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>71832.35889336749</v>
+        <v>86532.45228588695</v>
       </c>
     </row>
     <row r="5">
@@ -6326,28 +6326,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.85820101575263</v>
+        <v>69.73552085189536</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.16414315340499</v>
+        <v>95.41521614357711</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.60882843843507</v>
+        <v>86.30892183095453</v>
       </c>
       <c r="AD5" t="n">
-        <v>57858.20101575263</v>
+        <v>69735.52085189536</v>
       </c>
       <c r="AE5" t="n">
-        <v>79164.14315340499</v>
+        <v>95415.21614357711</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.047533441002368e-06</v>
+        <v>9.543692846406046e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH5" t="n">
-        <v>71608.82843843507</v>
+        <v>86308.92183095452</v>
       </c>
     </row>
     <row r="6">
@@ -6432,28 +6432,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>57.31088203040493</v>
+        <v>69.18820186654764</v>
       </c>
       <c r="AB6" t="n">
-        <v>78.41527717164315</v>
+        <v>94.66635016181527</v>
       </c>
       <c r="AC6" t="n">
-        <v>70.93143317493234</v>
+        <v>85.63152656745179</v>
       </c>
       <c r="AD6" t="n">
-        <v>57310.88203040493</v>
+        <v>69188.20186654765</v>
       </c>
       <c r="AE6" t="n">
-        <v>78415.27717164316</v>
+        <v>94666.35016181528</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.116498426931402e-06</v>
+        <v>9.674089336207747e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH6" t="n">
-        <v>70931.43317493233</v>
+        <v>85631.52656745179</v>
       </c>
     </row>
     <row r="7">
@@ -6538,28 +6538,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>56.79100399108118</v>
+        <v>68.66832382722392</v>
       </c>
       <c r="AB7" t="n">
-        <v>77.70395710284036</v>
+        <v>93.95503009301247</v>
       </c>
       <c r="AC7" t="n">
-        <v>70.28800049515186</v>
+        <v>84.98809388767133</v>
       </c>
       <c r="AD7" t="n">
-        <v>56791.00399108118</v>
+        <v>68668.32382722391</v>
       </c>
       <c r="AE7" t="n">
-        <v>77703.95710284036</v>
+        <v>93955.03009301246</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.192977294047707e-06</v>
+        <v>9.81869279956869e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.001302083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>70288.00049515186</v>
+        <v>84988.09388767132</v>
       </c>
     </row>
   </sheetData>
@@ -6835,28 +6835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>34.8507170316222</v>
+        <v>54.36455414665017</v>
       </c>
       <c r="AB2" t="n">
-        <v>47.68428854765533</v>
+        <v>74.3839813782794</v>
       </c>
       <c r="AC2" t="n">
-        <v>43.13336697407127</v>
+        <v>67.28487859412677</v>
       </c>
       <c r="AD2" t="n">
-        <v>34850.7170316222</v>
+        <v>54364.55414665017</v>
       </c>
       <c r="AE2" t="n">
-        <v>47684.28854765533</v>
+        <v>74383.98137827941</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.833449359782204e-06</v>
+        <v>1.566613877763815e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.727864583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>43133.36697407126</v>
+        <v>67284.87859412677</v>
       </c>
     </row>
   </sheetData>
@@ -7132,28 +7132,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>56.77682430577106</v>
+        <v>68.17220448097893</v>
       </c>
       <c r="AB2" t="n">
-        <v>77.68455583183548</v>
+        <v>93.27621771623963</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.27045085422185</v>
+        <v>84.37406641141828</v>
       </c>
       <c r="AD2" t="n">
-        <v>56776.82430577106</v>
+        <v>68172.20448097894</v>
       </c>
       <c r="AE2" t="n">
-        <v>77684.55583183549</v>
+        <v>93276.21771623963</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.915860492215951e-06</v>
+        <v>9.635018627874818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>70270.45085422185</v>
+        <v>84374.06641141829</v>
       </c>
     </row>
     <row r="3">
@@ -7238,28 +7238,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.10988162021813</v>
+        <v>66.50526179542602</v>
       </c>
       <c r="AB3" t="n">
-        <v>75.40377130914206</v>
+        <v>90.99543319354618</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.20734120527237</v>
+        <v>82.31095676246882</v>
       </c>
       <c r="AD3" t="n">
-        <v>55109.88162021813</v>
+        <v>66505.26179542602</v>
       </c>
       <c r="AE3" t="n">
-        <v>75403.77130914206</v>
+        <v>90995.43319354618</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.361705225312786e-06</v>
+        <v>1.050886814319975e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>68207.34120527237</v>
+        <v>82310.95676246882</v>
       </c>
     </row>
     <row r="4">
@@ -7344,28 +7344,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>42.79457204637014</v>
+        <v>65.4998125251122</v>
       </c>
       <c r="AB4" t="n">
-        <v>58.5534214370984</v>
+        <v>89.61973314461227</v>
       </c>
       <c r="AC4" t="n">
-        <v>52.96516507539663</v>
+        <v>81.06655159539758</v>
       </c>
       <c r="AD4" t="n">
-        <v>42794.57204637014</v>
+        <v>65499.8125251122</v>
       </c>
       <c r="AE4" t="n">
-        <v>58553.4214370984</v>
+        <v>89619.73314461227</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.541849286043447e-06</v>
+        <v>1.086194801265278e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.923177083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>52965.16507539662</v>
+        <v>81066.55159539758</v>
       </c>
     </row>
     <row r="5">
@@ -7450,28 +7450,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>42.34496188524465</v>
+        <v>65.05020236398671</v>
       </c>
       <c r="AB5" t="n">
-        <v>57.93824497924641</v>
+        <v>89.0045566867603</v>
       </c>
       <c r="AC5" t="n">
-        <v>52.40870019527625</v>
+        <v>80.51008671527721</v>
       </c>
       <c r="AD5" t="n">
-        <v>42344.96188524465</v>
+        <v>65050.20236398671</v>
       </c>
       <c r="AE5" t="n">
-        <v>57938.24497924641</v>
+        <v>89004.55668676029</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.588197633666872e-06</v>
+        <v>1.095279013346358e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.897135416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>52408.70019527625</v>
+        <v>80510.08671527721</v>
       </c>
     </row>
     <row r="6">
@@ -7556,28 +7556,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>42.33762717509777</v>
+        <v>65.04286765383983</v>
       </c>
       <c r="AB6" t="n">
-        <v>57.92820930523887</v>
+        <v>88.99452101275276</v>
       </c>
       <c r="AC6" t="n">
-        <v>52.39962231191083</v>
+        <v>80.50100883191179</v>
       </c>
       <c r="AD6" t="n">
-        <v>42337.62717509777</v>
+        <v>65042.86765383983</v>
       </c>
       <c r="AE6" t="n">
-        <v>57928.20930523887</v>
+        <v>88994.52101275275</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.579838511390184e-06</v>
+        <v>1.093640636932379e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.903645833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>52399.62231191083</v>
+        <v>80501.00883191179</v>
       </c>
     </row>
   </sheetData>
@@ -7853,28 +7853,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.32491771047106</v>
+        <v>82.44608004188768</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.17096964209149</v>
+        <v>112.8063639776116</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.42412622364064</v>
+        <v>102.0402829243436</v>
       </c>
       <c r="AD2" t="n">
-        <v>59324.91771047105</v>
+        <v>82446.08004188769</v>
       </c>
       <c r="AE2" t="n">
-        <v>81170.9696420915</v>
+        <v>112806.3639776116</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.573805139397149e-06</v>
+        <v>8.794069234500429e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.470052083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73424.12622364065</v>
+        <v>102040.2829243436</v>
       </c>
     </row>
     <row r="3">
@@ -7959,28 +7959,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.03297730164327</v>
+        <v>68.67894407619873</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.03503566146028</v>
+        <v>93.96956118619215</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.5874813808089</v>
+        <v>85.00123815371246</v>
       </c>
       <c r="AD3" t="n">
-        <v>57032.97730164327</v>
+        <v>68678.94407619874</v>
       </c>
       <c r="AE3" t="n">
-        <v>78035.03566146028</v>
+        <v>93969.56118619215</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.09925024662464e-06</v>
+        <v>9.804344161188084e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.111979166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>70587.48138080889</v>
+        <v>85001.23815371246</v>
       </c>
     </row>
     <row r="4">
@@ -8065,28 +8065,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.37369323648394</v>
+        <v>68.01966001103941</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.13297411794954</v>
+        <v>93.06749964268141</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.77151132495921</v>
+        <v>84.18526809786277</v>
       </c>
       <c r="AD4" t="n">
-        <v>56373.69323648394</v>
+        <v>68019.66001103941</v>
       </c>
       <c r="AE4" t="n">
-        <v>77132.97411794955</v>
+        <v>93067.49964268142</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.233365990731417e-06</v>
+        <v>1.006220891562469e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.033854166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>69771.51132495921</v>
+        <v>84185.26809786278</v>
       </c>
     </row>
     <row r="5">
@@ -8171,28 +8171,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>44.00483245520605</v>
+        <v>67.21124613264328</v>
       </c>
       <c r="AB5" t="n">
-        <v>60.2093531213878</v>
+        <v>91.96139210955714</v>
       </c>
       <c r="AC5" t="n">
-        <v>54.46305696385269</v>
+        <v>83.18472591526786</v>
       </c>
       <c r="AD5" t="n">
-        <v>44004.83245520605</v>
+        <v>67211.24613264328</v>
       </c>
       <c r="AE5" t="n">
-        <v>60209.3531213878</v>
+        <v>91961.39210955714</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.353392512720105e-06</v>
+        <v>1.02929842792826e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.962239583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>54463.05696385269</v>
+        <v>83184.72591526786</v>
       </c>
     </row>
     <row r="6">
@@ -8277,28 +8277,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>43.52469561994626</v>
+        <v>66.73110929738348</v>
       </c>
       <c r="AB6" t="n">
-        <v>59.55240872124349</v>
+        <v>91.30444770941283</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.86881041523068</v>
+        <v>82.59047936664585</v>
       </c>
       <c r="AD6" t="n">
-        <v>43524.69561994627</v>
+        <v>66731.10929738349</v>
       </c>
       <c r="AE6" t="n">
-        <v>59552.40872124349</v>
+        <v>91304.44770941282</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.408506234534976e-06</v>
+        <v>1.039895160203454e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.936197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>53868.81041523068</v>
+        <v>82590.47936664586</v>
       </c>
     </row>
   </sheetData>
@@ -8574,28 +8574,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>64.71220638401466</v>
+        <v>88.89791726275341</v>
       </c>
       <c r="AB2" t="n">
-        <v>88.54209567563254</v>
+        <v>121.6340522981653</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.09176233398324</v>
+        <v>110.0254690613248</v>
       </c>
       <c r="AD2" t="n">
-        <v>64712.20638401467</v>
+        <v>88897.91726275341</v>
       </c>
       <c r="AE2" t="n">
-        <v>88542.09567563253</v>
+        <v>121634.0522981653</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.971731716873173e-06</v>
+        <v>7.399034946885973e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.854166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>80091.76233398324</v>
+        <v>110025.4690613248</v>
       </c>
     </row>
     <row r="3">
@@ -8680,28 +8680,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.3765361223254</v>
+        <v>85.39165480047197</v>
       </c>
       <c r="AB3" t="n">
-        <v>83.97808446420562</v>
+        <v>116.8366293118916</v>
       </c>
       <c r="AC3" t="n">
-        <v>75.96333394694349</v>
+        <v>105.6859053916341</v>
       </c>
       <c r="AD3" t="n">
-        <v>61376.53612232541</v>
+        <v>85391.65480047197</v>
       </c>
       <c r="AE3" t="n">
-        <v>83978.08446420562</v>
+        <v>116836.6293118916</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.535770888290408e-06</v>
+        <v>8.449797142881998e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.37890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>75963.33394694349</v>
+        <v>105685.905391634</v>
       </c>
     </row>
     <row r="4">
@@ -8786,28 +8786,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.19120089904801</v>
+        <v>72.28414584696843</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.35625651841892</v>
+        <v>98.90235729923369</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.49629098405234</v>
+        <v>89.46325512894968</v>
       </c>
       <c r="AD4" t="n">
-        <v>60191.20089904801</v>
+        <v>72284.14584696843</v>
       </c>
       <c r="AE4" t="n">
-        <v>82356.25651841892</v>
+        <v>98902.35729923368</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.753147015797347e-06</v>
+        <v>8.854752381225442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.22265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>74496.29098405234</v>
+        <v>89463.25512894968</v>
       </c>
     </row>
     <row r="5">
@@ -8892,28 +8892,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.54853640195908</v>
+        <v>71.64148134987951</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.4769346011457</v>
+        <v>98.02303538196047</v>
       </c>
       <c r="AC5" t="n">
-        <v>73.70089031642732</v>
+        <v>88.66785446132468</v>
       </c>
       <c r="AD5" t="n">
-        <v>59548.53640195909</v>
+        <v>71641.48134987951</v>
       </c>
       <c r="AE5" t="n">
-        <v>81476.93460114569</v>
+        <v>98023.03538196046</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.866481879548935e-06</v>
+        <v>9.065886636350492e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>73700.89031642732</v>
+        <v>88667.85446132468</v>
       </c>
     </row>
     <row r="6">
@@ -8998,28 +8998,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.05873680566925</v>
+        <v>71.15168175358968</v>
       </c>
       <c r="AB6" t="n">
-        <v>80.80676918506913</v>
+        <v>97.3528699658839</v>
       </c>
       <c r="AC6" t="n">
-        <v>73.09468454707783</v>
+        <v>88.06164869197519</v>
       </c>
       <c r="AD6" t="n">
-        <v>59058.73680566925</v>
+        <v>71151.68175358968</v>
       </c>
       <c r="AE6" t="n">
-        <v>80806.76918506913</v>
+        <v>97352.8699658839</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.934525148382148e-06</v>
+        <v>9.192646085348136e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.10546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>73094.68454707784</v>
+        <v>88061.64869197519</v>
       </c>
     </row>
     <row r="7">
@@ -9104,28 +9104,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>58.62572375162335</v>
+        <v>70.71866869954378</v>
       </c>
       <c r="AB7" t="n">
-        <v>80.21430162133612</v>
+        <v>96.7604024021509</v>
       </c>
       <c r="AC7" t="n">
-        <v>72.55876125609386</v>
+        <v>87.52572540099122</v>
       </c>
       <c r="AD7" t="n">
-        <v>58625.72375162335</v>
+        <v>70718.66869954378</v>
       </c>
       <c r="AE7" t="n">
-        <v>80214.30162133613</v>
+        <v>96760.4024021509</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.979793215199266e-06</v>
+        <v>9.276977060407425e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>72558.76125609386</v>
+        <v>87525.72540099121</v>
       </c>
     </row>
     <row r="8">
@@ -9210,28 +9210,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>58.28606436252782</v>
+        <v>70.37900931044825</v>
       </c>
       <c r="AB8" t="n">
-        <v>79.74956466046119</v>
+        <v>96.29566544127596</v>
       </c>
       <c r="AC8" t="n">
-        <v>72.13837813850226</v>
+        <v>87.10534228339961</v>
       </c>
       <c r="AD8" t="n">
-        <v>58286.06436252782</v>
+        <v>70379.00931044825</v>
       </c>
       <c r="AE8" t="n">
-        <v>79749.56466046118</v>
+        <v>96295.66544127595</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.981534294692232e-06</v>
+        <v>9.280220559448168e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>72138.37813850226</v>
+        <v>87105.3422833996</v>
       </c>
     </row>
     <row r="9">
@@ -9316,28 +9316,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>58.30919680529735</v>
+        <v>70.40214175321778</v>
       </c>
       <c r="AB9" t="n">
-        <v>79.78121548918978</v>
+        <v>96.32731627000454</v>
       </c>
       <c r="AC9" t="n">
-        <v>72.16700825655921</v>
+        <v>87.13397240145657</v>
       </c>
       <c r="AD9" t="n">
-        <v>58309.19680529735</v>
+        <v>70402.14175321777</v>
       </c>
       <c r="AE9" t="n">
-        <v>79781.21548918978</v>
+        <v>96327.31627000455</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.981534294692232e-06</v>
+        <v>9.280220559448168e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>3.072916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>72167.00825655922</v>
+        <v>87133.97240145657</v>
       </c>
     </row>
   </sheetData>
@@ -9613,28 +9613,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.06946111073706</v>
+        <v>66.190034108397</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.34846618484303</v>
+        <v>90.56412476528924</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.1573143244152</v>
+        <v>81.92081180525939</v>
       </c>
       <c r="AD2" t="n">
-        <v>55069.46111073706</v>
+        <v>66190.034108397</v>
       </c>
       <c r="AE2" t="n">
-        <v>75348.46618484304</v>
+        <v>90564.12476528923</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.114331531653295e-06</v>
+        <v>1.025166402760985e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.2421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>68157.3143244152</v>
+        <v>81920.81180525939</v>
       </c>
     </row>
     <row r="3">
@@ -9719,28 +9719,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>41.66396043508315</v>
+        <v>63.81958655873272</v>
       </c>
       <c r="AB3" t="n">
-        <v>57.00646875131065</v>
+        <v>87.32077385107495</v>
       </c>
       <c r="AC3" t="n">
-        <v>51.56585138287956</v>
+        <v>78.9870017502251</v>
       </c>
       <c r="AD3" t="n">
-        <v>41663.96043508315</v>
+        <v>63819.58655873272</v>
       </c>
       <c r="AE3" t="n">
-        <v>57006.46875131065</v>
+        <v>87320.77385107495</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.707125232023946e-06</v>
+        <v>1.143991743204236e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.903645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>51565.85138287955</v>
+        <v>78987.0017502251</v>
       </c>
     </row>
     <row r="4">
@@ -9825,28 +9825,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>40.81895528279188</v>
+        <v>62.97458140644133</v>
       </c>
       <c r="AB4" t="n">
-        <v>55.85029542295504</v>
+        <v>86.16460052271414</v>
       </c>
       <c r="AC4" t="n">
-        <v>50.52002161427931</v>
+        <v>77.94117198162323</v>
       </c>
       <c r="AD4" t="n">
-        <v>40818.95528279188</v>
+        <v>62974.58140644133</v>
       </c>
       <c r="AE4" t="n">
-        <v>55850.29542295504</v>
+        <v>86164.60052271414</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.872447705462368e-06</v>
+        <v>1.177130589276584e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.819010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>50520.02161427931</v>
+        <v>77941.17198162322</v>
       </c>
     </row>
     <row r="5">
@@ -9931,28 +9931,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>40.86673238576701</v>
+        <v>63.02235850941645</v>
       </c>
       <c r="AB5" t="n">
-        <v>55.9156661630223</v>
+        <v>86.2299712627817</v>
       </c>
       <c r="AC5" t="n">
-        <v>50.57915346266316</v>
+        <v>78.00030383000717</v>
       </c>
       <c r="AD5" t="n">
-        <v>40866.73238576701</v>
+        <v>63022.35850941645</v>
       </c>
       <c r="AE5" t="n">
-        <v>55915.6661630223</v>
+        <v>86229.97126278171</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.869444156291354e-06</v>
+        <v>1.176528528639704e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.825520833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>50579.15346266316</v>
+        <v>78000.30383000716</v>
       </c>
     </row>
   </sheetData>
@@ -10228,28 +10228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>39.85756757972879</v>
+        <v>61.06272473890409</v>
       </c>
       <c r="AB2" t="n">
-        <v>54.53488235419839</v>
+        <v>83.54871388502764</v>
       </c>
       <c r="AC2" t="n">
-        <v>49.33014972260705</v>
+        <v>75.57494189321672</v>
       </c>
       <c r="AD2" t="n">
-        <v>39857.56757972878</v>
+        <v>61062.72473890409</v>
       </c>
       <c r="AE2" t="n">
-        <v>54534.88235419839</v>
+        <v>83548.71388502764</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.873953526333265e-06</v>
+        <v>1.228867812190691e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.936197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>49330.14972260705</v>
+        <v>75574.94189321672</v>
       </c>
     </row>
     <row r="3">
@@ -10334,28 +10334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>38.64951428473764</v>
+        <v>59.85467144391276</v>
       </c>
       <c r="AB3" t="n">
-        <v>52.88197054044954</v>
+        <v>81.89580207127135</v>
       </c>
       <c r="AC3" t="n">
-        <v>47.83498949248116</v>
+        <v>74.07978166308851</v>
       </c>
       <c r="AD3" t="n">
-        <v>38649.51428473764</v>
+        <v>59854.67144391275</v>
       </c>
       <c r="AE3" t="n">
-        <v>52881.97054044955</v>
+        <v>81895.80207127135</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.238288292402045e-06</v>
+        <v>1.305088923726013e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.766927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>47834.98949248117</v>
+        <v>74079.78166308851</v>
       </c>
     </row>
     <row r="4">
@@ -10440,28 +10440,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.68573655823577</v>
+        <v>59.8908937174109</v>
       </c>
       <c r="AB4" t="n">
-        <v>52.93153145306338</v>
+        <v>81.94536298388542</v>
       </c>
       <c r="AC4" t="n">
-        <v>47.87982038115447</v>
+        <v>74.12461255176189</v>
       </c>
       <c r="AD4" t="n">
-        <v>38685.73655823577</v>
+        <v>59890.89371741089</v>
       </c>
       <c r="AE4" t="n">
-        <v>52931.53145306338</v>
+        <v>81945.36298388541</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.219993336533661e-06</v>
+        <v>1.301261504545504e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.7734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>47879.82038115447</v>
+        <v>74124.61255176188</v>
       </c>
     </row>
   </sheetData>
@@ -18454,28 +18454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>37.21611907159626</v>
+        <v>57.66154862281505</v>
       </c>
       <c r="AB2" t="n">
-        <v>50.92073597290524</v>
+        <v>78.89507467369666</v>
       </c>
       <c r="AC2" t="n">
-        <v>46.06093239944745</v>
+        <v>71.36543947679003</v>
       </c>
       <c r="AD2" t="n">
-        <v>37216.11907159626</v>
+        <v>57661.54862281505</v>
       </c>
       <c r="AE2" t="n">
-        <v>50920.73597290524</v>
+        <v>78895.07467369665</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.444362792133084e-06</v>
+        <v>1.400911523872914e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>46060.93239944745</v>
+        <v>71365.43947679002</v>
       </c>
     </row>
     <row r="3">
@@ -18560,28 +18560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>36.85817200844704</v>
+        <v>57.30360155966578</v>
       </c>
       <c r="AB3" t="n">
-        <v>50.43097700959694</v>
+        <v>78.40531571038616</v>
       </c>
       <c r="AC3" t="n">
-        <v>45.61791534421481</v>
+        <v>70.9224224215567</v>
       </c>
       <c r="AD3" t="n">
-        <v>36858.17200844704</v>
+        <v>57303.60155966578</v>
       </c>
       <c r="AE3" t="n">
-        <v>50430.97700959694</v>
+        <v>78405.31571038616</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.577882081157854e-06</v>
+        <v>1.429936691556281e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.71484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>45617.91534421482</v>
+        <v>70922.42242155671</v>
       </c>
     </row>
   </sheetData>
@@ -18857,28 +18857,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>33.56162269916053</v>
+        <v>52.50103652667192</v>
       </c>
       <c r="AB2" t="n">
-        <v>45.92049281116159</v>
+        <v>71.83423435803132</v>
       </c>
       <c r="AC2" t="n">
-        <v>41.53790542716038</v>
+        <v>64.97847585089794</v>
       </c>
       <c r="AD2" t="n">
-        <v>33561.62269916053</v>
+        <v>52501.03652667192</v>
       </c>
       <c r="AE2" t="n">
-        <v>45920.49281116159</v>
+        <v>71834.23435803132</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.975968091120014e-06</v>
+        <v>1.659252820140549e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.747395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>41537.90542716038</v>
+        <v>64978.47585089794</v>
       </c>
     </row>
   </sheetData>
@@ -19154,28 +19154,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.93939937665503</v>
+        <v>80.81531977836968</v>
       </c>
       <c r="AB2" t="n">
-        <v>79.27524233301048</v>
+        <v>110.5750858410021</v>
       </c>
       <c r="AC2" t="n">
-        <v>71.70932446826772</v>
+        <v>100.0219548414728</v>
       </c>
       <c r="AD2" t="n">
-        <v>57939.39937665503</v>
+        <v>80815.31977836968</v>
       </c>
       <c r="AE2" t="n">
-        <v>79275.24233301048</v>
+        <v>110575.0858410021</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.755805765678856e-06</v>
+        <v>9.229012968476356e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.372395833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>71709.32446826772</v>
+        <v>100021.9548414728</v>
       </c>
     </row>
     <row r="3">
@@ -19260,28 +19260,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>56.40189810797126</v>
+        <v>67.92524391767572</v>
       </c>
       <c r="AB3" t="n">
-        <v>77.17156526742959</v>
+        <v>92.93831537839721</v>
       </c>
       <c r="AC3" t="n">
-        <v>69.8064193892959</v>
+        <v>84.06841299845054</v>
       </c>
       <c r="AD3" t="n">
-        <v>56401.89810797125</v>
+        <v>67925.24391767572</v>
       </c>
       <c r="AE3" t="n">
-        <v>77171.56526742959</v>
+        <v>92938.31537839721</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.156753366040425e-06</v>
+        <v>1.000708313907093e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.10546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>69806.4193892959</v>
+        <v>84068.41299845054</v>
       </c>
     </row>
     <row r="4">
@@ -19366,28 +19366,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>43.63046592842869</v>
+        <v>66.59163767616391</v>
       </c>
       <c r="AB4" t="n">
-        <v>59.69712832356576</v>
+        <v>91.1136164842066</v>
       </c>
       <c r="AC4" t="n">
-        <v>53.99971818182259</v>
+        <v>82.41786080573993</v>
       </c>
       <c r="AD4" t="n">
-        <v>43630.46592842869</v>
+        <v>66591.63767616391</v>
       </c>
       <c r="AE4" t="n">
-        <v>59697.12832356575</v>
+        <v>91113.61648420661</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.407499486001284e-06</v>
+        <v>1.049367559194491e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.962239583333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>53999.71818182259</v>
+        <v>82417.86080573994</v>
       </c>
     </row>
     <row r="5">
@@ -19472,28 +19472,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>43.16021205917676</v>
+        <v>66.12138380691198</v>
       </c>
       <c r="AB5" t="n">
-        <v>59.05370623351907</v>
+        <v>90.47019439415992</v>
       </c>
       <c r="AC5" t="n">
-        <v>53.41770339300118</v>
+        <v>81.83584601691852</v>
       </c>
       <c r="AD5" t="n">
-        <v>43160.21205917676</v>
+        <v>66121.38380691198</v>
       </c>
       <c r="AE5" t="n">
-        <v>59053.70623351907</v>
+        <v>90470.19439415992</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.47296182600874e-06</v>
+        <v>1.062071038155629e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.9296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>53417.70339300118</v>
+        <v>81835.84601691853</v>
       </c>
     </row>
     <row r="6">
@@ -19578,28 +19578,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>42.83763998935805</v>
+        <v>65.79881173709327</v>
       </c>
       <c r="AB6" t="n">
-        <v>58.61234889671799</v>
+        <v>90.02883705735883</v>
       </c>
       <c r="AC6" t="n">
-        <v>53.01846858097534</v>
+        <v>81.43661120489269</v>
       </c>
       <c r="AD6" t="n">
-        <v>42837.63998935805</v>
+        <v>65798.81173709327</v>
       </c>
       <c r="AE6" t="n">
-        <v>58612.34889671799</v>
+        <v>90028.83705735883</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.531358467790494e-06</v>
+        <v>1.073403363125851e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>3</v>
+        <v>2.897135416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>53018.46858097534</v>
+        <v>81436.61120489269</v>
       </c>
     </row>
   </sheetData>
@@ -19875,28 +19875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>63.36709746493188</v>
+        <v>87.34075887318049</v>
       </c>
       <c r="AB2" t="n">
-        <v>86.70165831052701</v>
+        <v>119.5034794925729</v>
       </c>
       <c r="AC2" t="n">
-        <v>78.42697372793275</v>
+        <v>108.0982351340198</v>
       </c>
       <c r="AD2" t="n">
-        <v>63367.09746493188</v>
+        <v>87340.75887318049</v>
       </c>
       <c r="AE2" t="n">
-        <v>86701.65831052701</v>
+        <v>119503.479492573</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.108417147790272e-06</v>
+        <v>7.709002010607647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.756510416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>78426.97372793275</v>
+        <v>108098.2351340198</v>
       </c>
     </row>
     <row r="3">
@@ -19981,28 +19981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.19041709870379</v>
+        <v>72.17733731137915</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.35518408820911</v>
+        <v>98.75621714878048</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.4953209050766</v>
+        <v>89.33106238934668</v>
       </c>
       <c r="AD3" t="n">
-        <v>60190.41709870379</v>
+        <v>72177.33731137915</v>
       </c>
       <c r="AE3" t="n">
-        <v>82355.18408820912</v>
+        <v>98756.21714878047</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.691073765873096e-06</v>
+        <v>8.802294361096014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.294270833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>74495.3209050766</v>
+        <v>89331.06238934668</v>
       </c>
     </row>
     <row r="4">
@@ -20087,28 +20087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.31490572058929</v>
+        <v>71.30182593326464</v>
       </c>
       <c r="AB4" t="n">
-        <v>81.15727079583745</v>
+        <v>97.5583038564088</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.41173477604664</v>
+        <v>88.24747626031673</v>
       </c>
       <c r="AD4" t="n">
-        <v>59314.90572058929</v>
+        <v>71301.82593326464</v>
       </c>
       <c r="AE4" t="n">
-        <v>81157.27079583745</v>
+        <v>97558.30385640881</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.850118145662478e-06</v>
+        <v>9.100723999437788e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.18359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>73411.73477604664</v>
+        <v>88247.47626031673</v>
       </c>
     </row>
     <row r="5">
@@ -20193,28 +20193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.5520374589157</v>
+        <v>70.53895767159105</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.11348078484374</v>
+        <v>96.5145138454151</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.46756261873335</v>
+        <v>87.30330410300347</v>
       </c>
       <c r="AD5" t="n">
-        <v>58552.0374589157</v>
+        <v>70538.95767159105</v>
       </c>
       <c r="AE5" t="n">
-        <v>80113.48078484375</v>
+        <v>96514.5138454151</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.981097265712774e-06</v>
+        <v>9.34649220249342e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.098958333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>72467.56261873335</v>
+        <v>87303.30410300347</v>
       </c>
     </row>
     <row r="6">
@@ -20299,28 +20299,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>58.34616398548508</v>
+        <v>70.33308419816045</v>
       </c>
       <c r="AB6" t="n">
-        <v>79.83179561599948</v>
+        <v>96.23282867657083</v>
       </c>
       <c r="AC6" t="n">
-        <v>72.21276108705588</v>
+        <v>87.04850257132598</v>
       </c>
       <c r="AD6" t="n">
-        <v>58346.16398548509</v>
+        <v>70333.08419816045</v>
       </c>
       <c r="AE6" t="n">
-        <v>79831.79561599948</v>
+        <v>96232.82867657083</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.002092831958837e-06</v>
+        <v>9.385888119846116e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.0859375</v>
       </c>
       <c r="AH6" t="n">
-        <v>72212.76108705589</v>
+        <v>87048.50257132598</v>
       </c>
     </row>
     <row r="7">
@@ -20405,28 +20405,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>57.65895118320374</v>
+        <v>69.64587139587908</v>
       </c>
       <c r="AB7" t="n">
-        <v>78.89152074222949</v>
+        <v>95.29255380280084</v>
       </c>
       <c r="AC7" t="n">
-        <v>71.36222472755414</v>
+        <v>86.19796621182422</v>
       </c>
       <c r="AD7" t="n">
-        <v>57658.95118320374</v>
+        <v>69645.87139587909</v>
       </c>
       <c r="AE7" t="n">
-        <v>78891.52074222949</v>
+        <v>95292.55380280085</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.090345381603303e-06</v>
+        <v>9.551484518209988e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>4</v>
+        <v>3.033854166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>71362.22472755413</v>
+        <v>86197.96621182423</v>
       </c>
     </row>
     <row r="8">
@@ -20511,28 +20511,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>57.61617021289955</v>
+        <v>69.6030904255749</v>
       </c>
       <c r="AB8" t="n">
-        <v>78.83298593129614</v>
+        <v>95.23401899186747</v>
       </c>
       <c r="AC8" t="n">
-        <v>71.3092763968221</v>
+        <v>86.14501788109219</v>
       </c>
       <c r="AD8" t="n">
-        <v>57616.17021289955</v>
+        <v>69603.0904255749</v>
       </c>
       <c r="AE8" t="n">
-        <v>78832.98593129613</v>
+        <v>95234.01899186747</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.074616499771508e-06</v>
+        <v>9.521970966566104e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>3.046875</v>
       </c>
       <c r="AH8" t="n">
-        <v>71309.2763968221</v>
+        <v>86145.01788109219</v>
       </c>
     </row>
   </sheetData>
@@ -20808,28 +20808,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>32.09490168982639</v>
+        <v>50.32994676172321</v>
       </c>
       <c r="AB2" t="n">
-        <v>43.91366041903621</v>
+        <v>68.86365355990948</v>
       </c>
       <c r="AC2" t="n">
-        <v>39.72260230192653</v>
+        <v>62.29140311491156</v>
       </c>
       <c r="AD2" t="n">
-        <v>32094.90168982639</v>
+        <v>50329.94676172321</v>
       </c>
       <c r="AE2" t="n">
-        <v>43913.66041903621</v>
+        <v>68863.65355990948</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.915440261807529e-06</v>
+        <v>1.72949912852579e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.87109375</v>
       </c>
       <c r="AH2" t="n">
-        <v>39722.60230192653</v>
+        <v>62291.40311491156</v>
       </c>
     </row>
   </sheetData>
@@ -21105,28 +21105,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.98157697476739</v>
+        <v>62.79561345766121</v>
       </c>
       <c r="AB2" t="n">
-        <v>71.12348688217787</v>
+        <v>85.91972867968467</v>
       </c>
       <c r="AC2" t="n">
-        <v>64.33556111659935</v>
+        <v>77.71967036361261</v>
       </c>
       <c r="AD2" t="n">
-        <v>51981.57697476738</v>
+        <v>62795.61345766121</v>
       </c>
       <c r="AE2" t="n">
-        <v>71123.48688217787</v>
+        <v>85919.72867968466</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.63339701549052e-06</v>
+        <v>1.160076128701751e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.020833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>64335.56111659935</v>
+        <v>77719.6703636126</v>
       </c>
     </row>
     <row r="3">
@@ -21211,28 +21211,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>39.622177799533</v>
+        <v>61.16473089365</v>
       </c>
       <c r="AB3" t="n">
-        <v>54.21281167227188</v>
+        <v>83.68828320614486</v>
       </c>
       <c r="AC3" t="n">
-        <v>49.03881701453361</v>
+        <v>75.70119091421334</v>
       </c>
       <c r="AD3" t="n">
-        <v>39622.177799533</v>
+        <v>61164.73089365</v>
       </c>
       <c r="AE3" t="n">
-        <v>54212.81167227188</v>
+        <v>83688.28320614486</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.073522487300183e-06</v>
+        <v>1.250710439061204e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.799479166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>49038.8170145336</v>
+        <v>75701.19091421334</v>
       </c>
     </row>
     <row r="4">
@@ -21317,28 +21317,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>39.37406501081304</v>
+        <v>60.91661810493001</v>
       </c>
       <c r="AB4" t="n">
-        <v>53.87333280878318</v>
+        <v>83.34880434265462</v>
       </c>
       <c r="AC4" t="n">
-        <v>48.73173753731367</v>
+        <v>75.39411143699292</v>
       </c>
       <c r="AD4" t="n">
-        <v>39374.06501081304</v>
+        <v>60916.61810493001</v>
       </c>
       <c r="AE4" t="n">
-        <v>53873.33280878318</v>
+        <v>83348.80434265462</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.136516996800515e-06</v>
+        <v>1.26368279419784e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.7734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>48731.73753731367</v>
+        <v>75394.11143699291</v>
       </c>
     </row>
   </sheetData>
@@ -21614,28 +21614,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.72118027567705</v>
+        <v>66.9825771130015</v>
       </c>
       <c r="AB2" t="n">
-        <v>76.24017709813384</v>
+        <v>91.64851706871825</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.96392159966595</v>
+        <v>82.90171122920364</v>
       </c>
       <c r="AD2" t="n">
-        <v>55721.18027567705</v>
+        <v>66982.57711300149</v>
       </c>
       <c r="AE2" t="n">
-        <v>76240.17709813385</v>
+        <v>91648.51706871825</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.060934270026544e-06</v>
+        <v>1.002664256655381e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.235677083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>68963.92159966595</v>
+        <v>82901.71122920365</v>
       </c>
     </row>
     <row r="3">
@@ -21720,28 +21720,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>42.75177334484325</v>
+        <v>65.18904714781843</v>
       </c>
       <c r="AB3" t="n">
-        <v>58.49486236552389</v>
+        <v>89.19453024539831</v>
       </c>
       <c r="AC3" t="n">
-        <v>52.91219479942499</v>
+        <v>80.68192946410845</v>
       </c>
       <c r="AD3" t="n">
-        <v>42751.77334484325</v>
+        <v>65189.04714781843</v>
       </c>
       <c r="AE3" t="n">
-        <v>58494.86236552388</v>
+        <v>89194.53024539832</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.495824702515143e-06</v>
+        <v>1.088824058176659e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.981770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>52912.19479942499</v>
+        <v>80681.92946410846</v>
       </c>
     </row>
     <row r="4">
@@ -21826,28 +21826,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>41.84278001169814</v>
+        <v>64.28005381467675</v>
       </c>
       <c r="AB4" t="n">
-        <v>57.25113758499704</v>
+        <v>87.95080546503888</v>
       </c>
       <c r="AC4" t="n">
-        <v>51.78716936647451</v>
+        <v>79.55690403120744</v>
       </c>
       <c r="AD4" t="n">
-        <v>41842.78001169814</v>
+        <v>64280.05381467675</v>
       </c>
       <c r="AE4" t="n">
-        <v>57251.13758499704</v>
+        <v>87950.80546503888</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.689875188182488e-06</v>
+        <v>1.127269032085447e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>3</v>
+        <v>2.877604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>51787.16936647451</v>
+        <v>79556.90403120744</v>
       </c>
     </row>
     <row r="5">
@@ -21932,28 +21932,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>41.58694095812829</v>
+        <v>64.02421476110686</v>
       </c>
       <c r="AB5" t="n">
-        <v>56.90108730508201</v>
+        <v>87.60075518512228</v>
       </c>
       <c r="AC5" t="n">
-        <v>51.47052739397488</v>
+        <v>79.2402620587073</v>
       </c>
       <c r="AD5" t="n">
-        <v>41586.94095812829</v>
+        <v>64024.21476110686</v>
       </c>
       <c r="AE5" t="n">
-        <v>56901.08730508201</v>
+        <v>87600.75518512228</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.740739860469158e-06</v>
+        <v>1.137346260143986e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>3</v>
+        <v>2.8515625</v>
       </c>
       <c r="AH5" t="n">
-        <v>51470.52739397487</v>
+        <v>79240.2620587073</v>
       </c>
     </row>
   </sheetData>
